--- a/story/主线剧情/main/level_main_08-10_end.xlsx
+++ b/story/主线剧情/main/level_main_08-10_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="535">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="感染者战士"]  你们居然连援军也一并打垮了？不愧是塔露拉......！
 </t>
   </si>
@@ -1075,6 +1081,1074 @@
   </si>
   <si>
     <t xml:space="preserve">彼らはただ見ていた。タルラが闇へ分け入っていく姿を――
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  You even defeated the reinforcements? I shouldn’t have expected less from you, Talulah! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What about all the other Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  They all made it in one piece. The backup safehouse we found really came in great use. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Have you done a headcount yet?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  I did. Some of the kids were crying about how one of the older girls hasn’t come back yet...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  It’s sad, but this happens fairly often these days. *Sigh*. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah! We found the rest of the patrol unit. Looks like they’ve just been running away the whole time.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Which way did they go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  East. Makes me wonder if they’ll come across the folks we exiled. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  —Talulah?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  H-Hold on! Talulah, where are you going? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boots soaked in freezing, chilling water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legs sunk in white, blinding snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot to use the sleigh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forgot to use the snowmobile.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melting all the snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashing in the mud.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long trail on the earth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A long trail in the snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold boring into the lungs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain piercing into the brain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running.Running.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An endless snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An endless winter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An endless world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A drop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah stopps in her tracks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another drop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tears drip down the corners of her eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She does not notice the drops she shed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alina lies there on the ground.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She grips firmly onto the empty basket in her hand. Her clothes are dyed red with her own blood.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The grass and the mud around her body, once pale white, have been dyed a dark shade no less intense or florid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow keeps falling, relentlessly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No... A... A...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talu...lah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alina...!!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I didn’t... want you to see me like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don’t talk. Alina, stop talking... Just don’t talk! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We need to stop the bleeding...! Just hang on...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’m... not bleeding anymore... It’s just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  In that case... Let’s go! We need to get you to the medics right away for a blood transfusion! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s okay... Don’t worry... It’s just... the things I traded for...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don’t worry about those... They aren’t important... Let’s head back... I’ll take you there! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Draco carries the Elafia on her back. Only now does she notice: this little deer looks so delicate and light, but her weight is so, so unbearably heavy on her back... As heavy as the weight of this whole world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Stop...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I won’t! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Who did it... Who did it... Who did this to you?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Was it the Patrol Unit...?! The villagers?! Those bastards... Those bastards... I’ll burn them all... I...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Wait, don’t tell me... Was it the Infected we exiled...?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Those ungrateful shitheads... No, no... If the Shieldguards gave them any rations...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alina... I’m listening... Just tell me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I won’t tell you...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Why?! Why?! Are you not going to at least give me the chance to avenge you?!    
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You mustn't... Don’t you remember what you said to me yourself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You mustn’t fight for revenge. You’ve already chosen, Talulah. You’ve already chosen a path to follow... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Giving up halfway... all because of me...? I won’t have it... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Don’t hold this against anybody... You mustn’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What are you talking about?! What are you saying?! How can I not...? How am I supposed to not hold this against anyone?!!!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You told me yourself...! You said yourself that you can’t harbor hatred against anyone... or you’d be... swallowed up... by that old man who placed that curse on you...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Even if those Arts never existed in the first place... Wouldn’t you still... be taken over... by all those things that represented who he was?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You told me that yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Right... Right. But... But... Those people... Those... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...You know where they came from... and why they did that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You said it yourself... Those people... aren’t our enemies...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Stop... Alina... Don’t speak...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  No... Talulah... Everything you said... I remember... so you must remember yourself...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  These aren’t the people... you need to crush... It’s Ursus... That drove them into that corner...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s Ursus... and... the world as it is...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s okay... That’s enough, Alina... I get it now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah... There is one thing you can detest... Everything they did, you can scorn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  But... never hate... anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Do you agree with me...? Do you think what I said... is right? Are our lives... meaningful at all? Ugh... I don’t know.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’m not sure what it was... that we did wrong... but I know very well just what that curse... is all about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Your rage... can burn down the entire plain... but you mustn’t hate...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alina...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’m worried. Talulah, I’m so worried. If I’m not here anymore, you must have Yelena remind you... All this...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Alina, stop! Don’t go on! I don’t... I don’t want you gone. All of you need to be here with me. You, Yelena, Sasha, Eno... All of you... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don’t want to lose any of you...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah... but all of us...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  All of us met... so that we could part one day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The white-haired Draco keeps trudging on in the cold, endless snowfield. On her back, the Elafia girl trembles away, pausing only to take in deep breaths now and then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow drops down from the Elafia’s horns. As Talulah slogs along, the snow-covered trees behind her begin to burn alight in silence. She has unknowingly begun to set her path ablaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snowfields before her eyes are vast and endless. On her back, Alina is the only warmth she can feel.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah feels each and every beat of Alina’s heart through her back, and they grow weaker and weaker by the moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She wants to scream. She wants to cry. She wants to squeeze everything she feels out of her lungs, as though it could erase all this from her body.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Talulah stays silent the entire time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’ll be there soon, Alina... We’re almost there!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don’t close your eyes... Don’t close your eyes!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s far...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You don’t... need to lie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snowstorm is growing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Talu...lah...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m listening, Alina. Tell me. What’s the matter?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...Snow... is warmer... than I ever imagined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I’m sorry... I still don’t... have all the things we talked about... written down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s okay. It’s okay, Alina. It doesn’t matter.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  The children... Eno in particular... You need to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m listening! Go on, Alina... I’m listening!!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You need to... do more... than just talk to him...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  It’s getting hot... Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  ...I don’t want to die... I still haven’t... your sister...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  You must... live on...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talulah will not remember what happens next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has no memories of anything after that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She melted away each and every last thing she should have remembered, along with the snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She leaves behind only a trail of flames, and, with the exception of Alina, everything behind her is burned away in the inferno of her wake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Talulah treks on in the snow toward her parting with her dear friend.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Talulah! You’re finally back! You didn’t answer our calls, what—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  ...What... Who’s that on your back...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  She’s not breathing! Medic! Get over here, now! Talulah, just hang on...   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  ...Talulah?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  (What? She’s walking right by... Where is she going?!) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah, you may be the leader here, but that doesn’t make it any less serious to leave—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Yelena...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  Let her go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (Do you know the poor little girl...?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  (Not really. I think... she’s a teacher at the settlement.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (Oh, she’s a teacher. Poor kids. That’s another person they could look up to, gone.)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (But why is Talulah...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  (Everyone has secrets they want to keep to themselves..)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="FrostNova"]  (Whatever happened, it’s hers alone to remember.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With the Elafia still on her back, the Draco walks past the encampment. Their contours slowly begin to blur until they both disappear into the edge of the forest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No one knows what happened after that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They could only watch as the Draco walked into the darkness of the night.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  지원군까지 해치웠다고? 역시 탈룰라야……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  감염자들은?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  모두 무사히 도착했어, 미리 찾아놨던 임시 거점이 도움이 됐어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  인원수는 확인했고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  물론, 언니인지 누나인지 누가 돌아오지 않았다고 우는 아이들이 있긴 했지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  후우, 언제나처럼 그렇군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라! 남아 있는 감시팀을 발견했다. 계속 도주 중인 것 같다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  어디로 도망쳤지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  동쪽. 우리가 예전에 쫓아냈던 사람들을 찾아낼지도 모르겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……탈룰라?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  잠, 잠깐만! 탈룰라, 어디 가는 거야!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">달리고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">또 달렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">부츠에 얼음물이 스며들었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈부시게 빛나는 눈밭 위로 발이 푹푹 빠진다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">썰매를 끌고 갈 걸 그랬다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">스노우모빌도 있었는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈을 전부 녹이며……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">진흙 속을 달렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼마나 걸었을까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼마나 달렸을까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">찬바람이 가슴을 파고들었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">통증에 머리가 깨질 듯 아팠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">달리고, 또 달렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈은 왜 아직도 끝나지 않는 걸까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울은 왜 끝나지 않는 걸까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대지는 왜 끝없이 넓은 걸까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">뚝.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라가 발걸음을 멈췄다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈물이 그녀의 눈가에서 흘려내렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지금의 자신에게 무슨 일이 생긴 건지 탈룰라는 알아차리지 못했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">알리나는 그렇게 길가에 쓰러져 있었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빈 바구니를 쥐고 있는 손, 붉게 물든 그녀의 옷.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀를 감싸고 있던 초목과 진흙도 검붉게 물들어 있었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈은 그렇게 계속 내렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아…… 아아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰……라?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  알리나……!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네게…… 이런 모습 보여주고 싶지 않았는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  마, 말하지 마! 알리나…… 말하면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내, 내가 지혈해 줄게……! 내가 도와줄 테니까……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  이제…… 피는 흐르지 않아…… 그냥……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그럼…… 가자! 메딕 불러서 수혈해달라 할 테니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  괜찮아…… 그보다…… 바꿔온 물건이……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  괘, 괜찮아…… 신경 쓰지 마…… 나랑 가자…… 내가 데려가 줄게!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">드라코는 엘라피아를 업었다. 그제야 그녀는 깨달았다. 가볍고 작은 사슴이 이렇게나 무거웠다니, 너무 무거워서…… 마치 대지처럼 느껴졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  이제 더는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  안돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  누가 그런 거야? ……도대체 누가…… 누가 이런 짓을 한 거야?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  감시팀인가…….?! 아니면 마을 사람들?! 망할 놈들…… 내가…… 모두 불태워 버릴 거야…… 내가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  잠깐, 설마…… 우리에게 쫓겨난 감염자들인가……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  더러운 것들…… 아니, 아니지, 방패병이 그들에게 식량을 나눠줬더라면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  응…… 듣고 있어…… 듣고 있다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  너한테 안 알려줄 거야……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  왜?! 어째서?! 내가 네 복수 하나 못할 것 같아?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그러면 안 돼…… 네가 했던 말, 벌써 까먹은 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  복수를 위해 싸우겠다는 거야? 탈룰라, 넌 이미 선택했잖아, 네가 가야 할 길을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  그런데 나 때문에…… 그 길을 포기하겠다고……? 난 인정할 수 없어……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  절대로…… 누군가를 미워하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  무, 무슨 말이야! 내, 내가 어떻게 그럴 수 있겠어…… 어떻게!!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네가 말했잖아……! 누구든 미워하지 않을 거라고……! 그랬다가는…… 널 저주하는 그자에게…… 먹히고 말 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……아츠가 없어도…… 그가 만든 무언가에게…… 조종당하지 않을 거라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네가 그렇게 말했잖아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그…… 그래. 하지만…… 하지만…… 그…… 그자들은……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……너도 알고 있잖아. 그들이 어디에서 왔고, 또…… 왜 그랬는지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네 스스로 말했듯이…… 네가 마주할 상대…… 적들이 아니야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아, 알았으니까 그만 말해…… 알리나…… 이제 그만……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아니…… 탈룰라…… 네가…… 한 말을 난 다 기억하고 있어…… 그러니까, 너도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네가 무너뜨려야 할 사람은…… 그 사람들이 아니라…… 그들을 이 지경으로 몰아넣고, 그들을 이렇게 만든…… 우르수스야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  우르수스…… 그리고 이런…… 세상……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아, 알았으니까…… 말하지 마, 알리나!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라…… 네가 유일하게 미워할 수 있는 건…… 저들이 저지른 일이야, 그 일만 미워해야 해……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  누구도 미워해서는…… 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  내 말이…… 맞지? 우리의 삶이…… 의미가 있었을까? 헉…… 난 모르겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  우리가 잘못했는지는 모르겠지만…… 그 저주가 무엇인지는…… 잘 알아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  네 분노는…… 황야를 태워버릴 수 있겠지…… 그래도 넌 미워해서는 안 돼……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  알리나……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라, 네가 걱정돼. 혹시 내가 없으면 옐레나에게 일깨워 달라고 해…… 이건 모두……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  알리나, 이야기 그만해! 내 곁엔…… 네가 있어야 해. 옐레나도, 사샤와 이노도, 너희 모두 없어서는 안 돼……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  너희 중 그 누구도 잃고 싶지 않아……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아, 탈룰라…… 하지만 우리 모두는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  만남은…… 이별을 위해 존재하는걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">백발의 드라코는 끝없이 펼쳐진 눈밭에서 힘겹게 발길을 옮겼다. 엘라피아의 소녀는 그녀에게 업힌 채 온몸을 부들부들 떨다가, 이따금 숨을 깊게 들이쉬었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈꽃이 엘라피아의 뿔을 타고 떨어졌다. 탈룰라가 지나간 자리에는 눈으로 뒤덮인 나무들이 소리 없이 타올랐다, 그녀는 자신도 모르는 사이에 자신이 내디딘 땅을 불태우기 시작했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀 앞에 펼쳐진 끝없는 설원에서, 그녀의 등에 업힌 알리나만이 유일하게 따뜻한 존재였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">심장이 뛰는소리가 탈룰라의 등줄기를 타고 심장까지 전해졌다, 그리고 그 소리는 점점 약해져 갔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀는 소리 지르고 싶었다. 울고 싶었다. 또 모든 감정을 가슴속에서 쥐어짜내고 싶었다. 그래야 이미 일어난 모든 일을 몸에서 지울 수 있을 것 같았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 탈룰라는 아무 소리도 내지 못했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  다 왔어, 알리나…… 이제 다 왔어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  눈 감지 마…… 제발 눈 좀 떠봐!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아직 멀었잖아……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  거짓말하지…… 않아도 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈발이 점점 굵어진다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰……라……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  듣고 있어, 알리나. 말해, 말하라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……눈은…… 내가 생각했던 것 보다…… 따뜻하네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  미안해…… 우리가 나눴던 이야기를…… 미처 다 적지 못했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  괜찮아, 알리나! 그런 건 상관없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  아이들…… 특히…… 이노는…… 네가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  듣고 있어! 알리나…… 나 듣고 있어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  이것만…… 그 애한테…… 말해줘……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  더워…… 탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  ……나 죽고 싶지 않아…… 나 아직…… 네 동생을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="알리나"]  탈룰라…… 꼭…… 살아…… 남……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">거기까지였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라는 그 이후로 무슨 일이 일어났는지 기억하지 못했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라는 아무것도 기억하지 못했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라가 기억해야 할 모든 것은 눈과 함께 녹아버렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그녀에겐 불길밖에 남지 않았다. 알리나를 제외한, 그녀의 등 뒤에 있던 모든 것이 불길 속에 사라졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">온 세상을 뒤덮은 눈 속에서, 탈룰라는 친구와의 이별을 향해 걸어갔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  탈룰라! 드디어 돌아왔구나. 통신도 안 받고, 어떻게 된……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  ……이건…… 네 등에 업혀 있는 건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  헉, 숨을 쉬고 있지 않아! 메딕, 어서 살펴봐! 탈룰라, 잠깐 기다려……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  ……탈룰라?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  (어라, 왜 계속 앞으로만 가는 거지…… 어디로 가려는 거야?!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라, 네가 아무리 지휘관이라고 해도, 멋대로 부대를 이탈하는 건 심각한……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  잠깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  옐레나……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  그냥 내버려 둬.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (저 소녀를 알아……?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  (아니. 그냥…… 마을 선생님 중 한 명 같은데.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (아, 그 선생님 말인가. 아이들이 훌륭한 교사 한 명을 또 잃었군.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (하지만 탈룰라가 왜……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  (……누구나 마음속에 담아두고 싶은 일은 있기 마련이니까……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="프로스트노바"]  (이 일은 탈룰라만이 알겠지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">수많은 사람의 시선 속에서 드라코는 엘라피아를 업고 주둔지를 걸어 나왔다. 그녀들의 그림자는 천천히 흐릿해지더니, 숲속으로 사라졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 이후로 어떤 일이 일어났는지는 아무도 모른다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사람들은 그저 탈룰라가 어둠 속으로 걸어 들어가는 모습을 지켜보았을 뿐이다.
 </t>
   </si>
 </sst>
@@ -1433,1114 +2507,1942 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
+      <c r="D33" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" t="s">
+        <v>304</v>
+      </c>
+      <c r="D38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>307</v>
+      </c>
+      <c r="D42" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>309</v>
+      </c>
+      <c r="D44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>315</v>
+      </c>
+      <c r="D50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>319</v>
+      </c>
+      <c r="D54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>320</v>
+      </c>
+      <c r="D55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>324</v>
+      </c>
+      <c r="D59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>326</v>
+      </c>
+      <c r="D61" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>327</v>
+      </c>
+      <c r="D62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" t="s">
+        <v>328</v>
+      </c>
+      <c r="D63" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>329</v>
+      </c>
+      <c r="D64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" t="s">
+        <v>331</v>
+      </c>
+      <c r="D66" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D67" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>334</v>
+      </c>
+      <c r="D69" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
+      <c r="D72" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" t="s">
+        <v>343</v>
+      </c>
+      <c r="D78" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>210</v>
+      </c>
+      <c r="C79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D79" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>211</v>
+      </c>
+      <c r="C80" t="s">
+        <v>345</v>
+      </c>
+      <c r="D80" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" t="s">
+        <v>348</v>
+      </c>
+      <c r="D84" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="D85" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" t="s">
+        <v>351</v>
+      </c>
+      <c r="D87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>220</v>
+      </c>
+      <c r="C90" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" t="s">
+        <v>355</v>
+      </c>
+      <c r="D91" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" t="s">
+        <v>356</v>
+      </c>
+      <c r="D92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>223</v>
+      </c>
+      <c r="C93" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>224</v>
+      </c>
+      <c r="C94" t="s">
+        <v>358</v>
+      </c>
+      <c r="D94" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>225</v>
+      </c>
+      <c r="C95" t="s">
+        <v>359</v>
+      </c>
+      <c r="D95" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>360</v>
+      </c>
+      <c r="D96" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>361</v>
+      </c>
+      <c r="D97" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>362</v>
+      </c>
+      <c r="D98" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>363</v>
+      </c>
+      <c r="D99" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
+        <v>364</v>
+      </c>
+      <c r="D100" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>366</v>
+      </c>
+      <c r="D102" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>367</v>
+      </c>
+      <c r="D103" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" t="s">
+        <v>368</v>
+      </c>
+      <c r="D104" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" t="s">
+        <v>369</v>
+      </c>
+      <c r="D105" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>370</v>
+      </c>
+      <c r="D106" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>371</v>
+      </c>
+      <c r="D107" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>373</v>
+      </c>
+      <c r="D109" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" t="s">
+        <v>374</v>
+      </c>
+      <c r="D110" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>375</v>
+      </c>
+      <c r="D111" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>110</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>376</v>
+      </c>
+      <c r="D113" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>378</v>
+      </c>
+      <c r="D115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>386</v>
+      </c>
+      <c r="D123" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+      <c r="C124" t="s">
+        <v>387</v>
+      </c>
+      <c r="D124" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
+        <v>389</v>
+      </c>
+      <c r="D126" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>391</v>
+      </c>
+      <c r="D128" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>126</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>392</v>
+      </c>
+      <c r="D129" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>127</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>393</v>
+      </c>
+      <c r="D130" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>128</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" t="s">
+        <v>394</v>
+      </c>
+      <c r="D131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" t="s">
+        <v>395</v>
+      </c>
+      <c r="D132" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D133" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" t="s">
+        <v>397</v>
+      </c>
+      <c r="D134" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" t="s">
+        <v>398</v>
+      </c>
+      <c r="D135" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136" t="s">
+        <v>265</v>
+      </c>
+      <c r="C136" t="s">
+        <v>399</v>
+      </c>
+      <c r="D136" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B137" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-      <c r="B75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>85</v>
-      </c>
-      <c r="B89" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>90</v>
-      </c>
-      <c r="B94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>91</v>
-      </c>
-      <c r="B95" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>92</v>
-      </c>
-      <c r="B96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>93</v>
-      </c>
-      <c r="B97" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>96</v>
-      </c>
-      <c r="B100" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>97</v>
-      </c>
-      <c r="B101" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>103</v>
-      </c>
-      <c r="B107" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>104</v>
-      </c>
-      <c r="B108" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>105</v>
-      </c>
-      <c r="B109" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>107</v>
-      </c>
-      <c r="B111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>109</v>
-      </c>
-      <c r="B114" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>110</v>
-      </c>
-      <c r="B115" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>111</v>
-      </c>
-      <c r="B116" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>112</v>
-      </c>
-      <c r="B117" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>113</v>
-      </c>
-      <c r="B118" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>114</v>
-      </c>
-      <c r="B119" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>115</v>
-      </c>
-      <c r="B120" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>117</v>
-      </c>
-      <c r="B122" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>119</v>
-      </c>
-      <c r="B124" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>120</v>
-      </c>
-      <c r="B125" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>122</v>
-      </c>
-      <c r="B127" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>123</v>
-      </c>
-      <c r="B128" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>124</v>
-      </c>
-      <c r="B129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>125</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>126</v>
-      </c>
-      <c r="B131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>130</v>
-      </c>
-      <c r="B135" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>131</v>
-      </c>
-      <c r="B136" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>133</v>
-      </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="C138" t="s">
+        <v>401</v>
+      </c>
+      <c r="D138" t="s">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
